--- a/FISID_Übungen/Online_Shop.Projekt_FIAE_D.xlsx
+++ b/FISID_Übungen/Online_Shop.Projekt_FIAE_D.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captiva\git\QM_PM\FISID_Übungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{346AA1A9-7438-4EC9-A1DA-9267438389C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BB2A3E-6C9C-4B05-82F9-C97DC2ECD6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="81">
   <si>
     <t>Beispiel: Funktionsorientierter Projektstrukturplan</t>
   </si>
@@ -352,7 +352,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -435,12 +435,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor rgb="FFE8E8E8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -941,15 +935,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
@@ -957,12 +942,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -972,76 +960,73 @@
     <xf numFmtId="0" fontId="6" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1049,6 +1034,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1888,20 +1882,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="92" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="93"/>
+      <c r="I1" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="80"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -1941,20 +1935,20 @@
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" ht="24.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F5" s="94" t="s">
+      <c r="F5" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="95"/>
+      <c r="G5" s="82"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="96" t="s">
+      <c r="I5" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="97"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="98" t="s">
+      <c r="L5" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="99"/>
+      <c r="M5" s="86"/>
     </row>
     <row r="6" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F6" s="48" t="s">
@@ -1988,14 +1982,14 @@
         <v>12</v>
       </c>
       <c r="G8" s="88"/>
-      <c r="I8" s="83" t="s">
+      <c r="I8" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="84"/>
-      <c r="L8" s="89" t="s">
+      <c r="J8" s="90"/>
+      <c r="L8" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="90"/>
+      <c r="M8" s="92"/>
     </row>
     <row r="9" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F9" s="50" t="s">
@@ -2027,14 +2021,14 @@
         <v>18</v>
       </c>
       <c r="G11" s="88"/>
-      <c r="I11" s="83" t="s">
+      <c r="I11" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="84"/>
-      <c r="L11" s="89" t="s">
+      <c r="J11" s="90"/>
+      <c r="L11" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="90"/>
+      <c r="M11" s="92"/>
     </row>
     <row r="12" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F12" s="50" t="s">
@@ -2066,14 +2060,14 @@
         <v>24</v>
       </c>
       <c r="G14" s="88"/>
-      <c r="I14" s="83" t="s">
+      <c r="I14" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="84"/>
-      <c r="L14" s="89" t="s">
+      <c r="J14" s="90"/>
+      <c r="L14" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="90"/>
+      <c r="M14" s="92"/>
     </row>
     <row r="15" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F15" s="50" t="s">
@@ -2104,10 +2098,10 @@
         <v>30</v>
       </c>
       <c r="G17" s="88"/>
-      <c r="I17" s="83" t="s">
+      <c r="I17" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="84"/>
+      <c r="J17" s="90"/>
     </row>
     <row r="18" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F18" s="50" t="s">
@@ -2127,10 +2121,10 @@
       <c r="I19" s="42"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I20" s="83" t="s">
+      <c r="I20" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="84"/>
+      <c r="J20" s="90"/>
     </row>
     <row r="21" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I21" s="54" t="s">
@@ -2144,10 +2138,10 @@
       <c r="I22" s="42"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I23" s="83" t="s">
+      <c r="I23" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="J23" s="84"/>
+      <c r="J23" s="90"/>
     </row>
     <row r="24" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I24" s="54" t="s">
@@ -2161,11 +2155,11 @@
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="I25" s="42"/>
@@ -2174,27 +2168,27 @@
       <c r="A26" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
-      <c r="I26" s="83" t="s">
+      <c r="I26" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="84"/>
+      <c r="J26" s="90"/>
     </row>
     <row r="27" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="I27" s="54" t="s">
@@ -2208,11 +2202,11 @@
       <c r="A28" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="I28" s="42"/>
@@ -2221,27 +2215,27 @@
       <c r="A29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="81" t="s">
+      <c r="B29" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="I29" s="83" t="s">
+      <c r="I29" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="J29" s="84"/>
+      <c r="J29" s="90"/>
     </row>
     <row r="30" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="I30" s="54" t="s">
@@ -2255,11 +2249,11 @@
       <c r="A31" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="81" t="s">
+      <c r="B31" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="I31" s="42"/>
@@ -2268,27 +2262,27 @@
       <c r="A32" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="81" t="s">
+      <c r="B32" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="81"/>
-      <c r="D32" s="81"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="I32" s="83" t="s">
+      <c r="I32" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="J32" s="84"/>
+      <c r="J32" s="90"/>
     </row>
     <row r="33" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="81" t="s">
+      <c r="B33" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="I33" s="54" t="s">
@@ -2302,11 +2296,11 @@
       <c r="A34" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
@@ -2314,11 +2308,11 @@
       <c r="A35" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="81" t="s">
+      <c r="B35" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
@@ -2326,11 +2320,11 @@
       <c r="A36" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="81" t="s">
+      <c r="B36" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="95"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
@@ -2338,11 +2332,11 @@
       <c r="A37" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="81" t="s">
+      <c r="B37" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
@@ -2350,11 +2344,11 @@
       <c r="A38" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="81" t="s">
+      <c r="B38" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="95"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
@@ -2362,11 +2356,11 @@
       <c r="A39" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="81" t="s">
+      <c r="B39" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
@@ -2374,11 +2368,11 @@
       <c r="A40" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="81" t="s">
+      <c r="B40" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="95"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
@@ -2386,47 +2380,16 @@
       <c r="A41" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="82" t="s">
+      <c r="B41" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="82"/>
-      <c r="D41" s="82"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B35:D35"/>
@@ -2434,6 +2397,37 @@
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -2449,16 +2443,16 @@
   <dimension ref="A1:BQ23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:D23"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="16.140625" style="4" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="11.5703125" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="11.5703125" style="13" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="11.5703125" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="11.5703125" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="11.5703125" style="13" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="11.5703125" style="4" customWidth="1"/>
     <col min="11" max="107" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2466,11 +2460,11 @@
       <c r="A1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
       <c r="E1" s="14" t="s">
         <v>46</v>
       </c>
@@ -2494,11 +2488,11 @@
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
       <c r="E2" s="16"/>
       <c r="F2" s="17" t="s">
         <v>52</v>
@@ -2506,8 +2500,8 @@
       <c r="G2" s="18">
         <v>5</v>
       </c>
-      <c r="H2" s="62" t="s">
-        <v>53</v>
+      <c r="H2" s="100">
+        <v>1</v>
       </c>
       <c r="I2" s="19">
         <v>1</v>
@@ -2516,101 +2510,101 @@
         <f t="shared" ref="J2:J17" si="0">ROUND(G2/(H2*I2),0)</f>
         <v>5</v>
       </c>
-      <c r="L2" s="72">
+      <c r="L2" s="69">
         <v>0</v>
       </c>
-      <c r="M2" s="73"/>
-      <c r="N2" s="76">
+      <c r="M2" s="70"/>
+      <c r="N2" s="73">
         <f>L2+L4</f>
         <v>5</v>
       </c>
-      <c r="Q2" s="72">
+      <c r="Q2" s="69">
         <f>N2</f>
         <v>5</v>
       </c>
-      <c r="R2" s="73"/>
-      <c r="S2" s="76">
+      <c r="R2" s="70"/>
+      <c r="S2" s="73">
         <f>Q2+Q4</f>
         <v>6</v>
       </c>
-      <c r="V2" s="72">
+      <c r="V2" s="69">
         <f>S2</f>
         <v>6</v>
       </c>
-      <c r="W2" s="73"/>
-      <c r="X2" s="76">
+      <c r="W2" s="70"/>
+      <c r="X2" s="73">
         <f>V2+V4</f>
         <v>10</v>
       </c>
-      <c r="AF2" s="72">
+      <c r="AF2" s="69">
         <f>MAX(X2,AC8,X14)</f>
         <v>16</v>
       </c>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="76">
+      <c r="AG2" s="70"/>
+      <c r="AH2" s="73">
         <f>AF2+AF4</f>
         <v>18</v>
       </c>
-      <c r="AK2" s="72">
+      <c r="AK2" s="69">
         <f>AH2</f>
         <v>18</v>
       </c>
-      <c r="AL2" s="73"/>
-      <c r="AM2" s="76">
+      <c r="AL2" s="70"/>
+      <c r="AM2" s="73">
         <f>AK2+AK4</f>
         <v>20</v>
       </c>
-      <c r="AP2" s="72">
+      <c r="AP2" s="69">
         <f>AM2</f>
         <v>20</v>
       </c>
-      <c r="AQ2" s="73"/>
-      <c r="AR2" s="76">
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="73">
         <f>AP2+AP4</f>
         <v>22</v>
       </c>
-      <c r="AU2" s="72">
+      <c r="AU2" s="69">
         <f>AR2</f>
         <v>22</v>
       </c>
-      <c r="AV2" s="73"/>
-      <c r="AW2" s="76">
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="73">
         <f>AU2+AU4</f>
         <v>25</v>
       </c>
-      <c r="AZ2" s="72">
+      <c r="AZ2" s="69">
         <f>AW2</f>
         <v>25</v>
       </c>
-      <c r="BA2" s="73"/>
-      <c r="BB2" s="76">
+      <c r="BA2" s="70"/>
+      <c r="BB2" s="73">
         <f>AZ2+AZ4</f>
         <v>28</v>
       </c>
-      <c r="BE2" s="72">
+      <c r="BE2" s="69">
         <f>BB2</f>
         <v>28</v>
       </c>
-      <c r="BF2" s="73"/>
-      <c r="BG2" s="76">
+      <c r="BF2" s="70"/>
+      <c r="BG2" s="73">
         <f>BE2+BE4</f>
         <v>29</v>
       </c>
-      <c r="BJ2" s="72">
+      <c r="BJ2" s="69">
         <f>BG2</f>
         <v>29</v>
       </c>
-      <c r="BK2" s="73"/>
-      <c r="BL2" s="76">
+      <c r="BK2" s="70"/>
+      <c r="BL2" s="73">
         <f>BJ2+BJ4</f>
         <v>34</v>
       </c>
-      <c r="BO2" s="72">
+      <c r="BO2" s="69">
         <f>MAX(BL2,AC14)</f>
         <v>34</v>
       </c>
-      <c r="BP2" s="73"/>
-      <c r="BQ2" s="76">
+      <c r="BP2" s="70"/>
+      <c r="BQ2" s="73">
         <f>BO2+BO4</f>
         <v>35</v>
       </c>
@@ -2619,11 +2613,11 @@
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
       <c r="E3" s="20" t="s">
         <v>16</v>
       </c>
@@ -2633,7 +2627,7 @@
       <c r="G3" s="21">
         <v>1</v>
       </c>
-      <c r="H3" s="63" t="s">
+      <c r="H3" s="101" t="s">
         <v>53</v>
       </c>
       <c r="I3" s="22">
@@ -2643,96 +2637,96 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L3" s="100" t="s">
+      <c r="L3" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
       <c r="O3" s="60"/>
       <c r="P3" s="61"/>
-      <c r="Q3" s="100" t="s">
+      <c r="Q3" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
       <c r="T3" s="60"/>
       <c r="U3" s="61"/>
-      <c r="V3" s="100" t="s">
+      <c r="V3" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="100"/>
-      <c r="X3" s="100"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
       <c r="Y3" s="60"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
       <c r="AE3" s="61"/>
-      <c r="AF3" s="100" t="s">
+      <c r="AF3" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="AG3" s="100"/>
-      <c r="AH3" s="100"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
       <c r="AI3" s="60"/>
       <c r="AJ3" s="61"/>
-      <c r="AK3" s="100" t="s">
+      <c r="AK3" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="AL3" s="100"/>
-      <c r="AM3" s="100"/>
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97"/>
       <c r="AN3" s="60"/>
       <c r="AO3" s="61"/>
-      <c r="AP3" s="100" t="s">
+      <c r="AP3" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="AQ3" s="100"/>
-      <c r="AR3" s="100"/>
+      <c r="AQ3" s="97"/>
+      <c r="AR3" s="97"/>
       <c r="AS3" s="60"/>
       <c r="AT3" s="61"/>
-      <c r="AU3" s="100" t="s">
+      <c r="AU3" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="AV3" s="100"/>
-      <c r="AW3" s="100"/>
+      <c r="AV3" s="97"/>
+      <c r="AW3" s="97"/>
       <c r="AX3" s="60"/>
       <c r="AY3" s="61"/>
-      <c r="AZ3" s="100" t="s">
+      <c r="AZ3" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="BA3" s="100"/>
-      <c r="BB3" s="100"/>
+      <c r="BA3" s="97"/>
+      <c r="BB3" s="97"/>
       <c r="BC3" s="60"/>
       <c r="BD3" s="61"/>
-      <c r="BE3" s="100" t="s">
+      <c r="BE3" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="BF3" s="100"/>
-      <c r="BG3" s="100"/>
+      <c r="BF3" s="97"/>
+      <c r="BG3" s="97"/>
       <c r="BH3" s="60"/>
       <c r="BI3" s="61"/>
-      <c r="BJ3" s="100" t="s">
+      <c r="BJ3" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="BK3" s="100"/>
-      <c r="BL3" s="100"/>
+      <c r="BK3" s="97"/>
+      <c r="BL3" s="97"/>
       <c r="BM3" s="60"/>
       <c r="BN3" s="61"/>
-      <c r="BO3" s="100" t="s">
+      <c r="BO3" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="BP3" s="100"/>
-      <c r="BQ3" s="100"/>
+      <c r="BP3" s="97"/>
+      <c r="BQ3" s="97"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="20" t="s">
         <v>15</v>
       </c>
@@ -2742,7 +2736,7 @@
       <c r="G4" s="21">
         <v>4</v>
       </c>
-      <c r="H4" s="63" t="s">
+      <c r="H4" s="101" t="s">
         <v>53</v>
       </c>
       <c r="I4" s="22">
@@ -2752,149 +2746,149 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L4" s="77">
+      <c r="L4" s="74">
         <f>J2</f>
         <v>5</v>
       </c>
-      <c r="M4" s="78">
+      <c r="M4" s="75">
         <f>N5-N2</f>
         <v>0</v>
       </c>
-      <c r="N4" s="79">
+      <c r="N4" s="76">
         <f>MIN(Q2,Q14)-N2</f>
         <v>0</v>
       </c>
       <c r="O4" s="43"/>
-      <c r="Q4" s="77">
+      <c r="Q4" s="74">
         <f>J3</f>
         <v>1</v>
       </c>
-      <c r="R4" s="78">
+      <c r="R4" s="75">
         <f>S5-S2</f>
         <v>0</v>
       </c>
-      <c r="S4" s="79">
+      <c r="S4" s="76">
         <f>MIN(V2,V8)-S2</f>
         <v>0</v>
       </c>
       <c r="T4" s="43"/>
-      <c r="V4" s="77">
+      <c r="V4" s="74">
         <f>J4</f>
         <v>4</v>
       </c>
-      <c r="W4" s="78">
+      <c r="W4" s="75">
         <f>X5-X2</f>
         <v>6</v>
       </c>
-      <c r="X4" s="79">
+      <c r="X4" s="76">
         <f>AF2-X2</f>
         <v>6</v>
       </c>
-      <c r="AE4" s="70"/>
-      <c r="AF4" s="77">
+      <c r="AE4" s="67"/>
+      <c r="AF4" s="74">
         <f>J9</f>
         <v>2</v>
       </c>
-      <c r="AG4" s="78">
+      <c r="AG4" s="75">
         <f>AH5-AH2</f>
         <v>0</v>
       </c>
-      <c r="AH4" s="79">
+      <c r="AH4" s="76">
         <f>AK2-AH2</f>
         <v>0</v>
       </c>
-      <c r="AK4" s="77">
+      <c r="AK4" s="74">
         <f>J10</f>
         <v>2</v>
       </c>
-      <c r="AL4" s="78">
+      <c r="AL4" s="75">
         <f>AM5-AM2</f>
         <v>0</v>
       </c>
-      <c r="AM4" s="79">
+      <c r="AM4" s="76">
         <f>AP2-AM2</f>
         <v>0</v>
       </c>
-      <c r="AP4" s="77">
+      <c r="AP4" s="74">
         <f>J11</f>
         <v>2</v>
       </c>
-      <c r="AQ4" s="78">
+      <c r="AQ4" s="75">
         <f>AR5-AR2</f>
         <v>0</v>
       </c>
-      <c r="AR4" s="79">
+      <c r="AR4" s="76">
         <f>AU2-AR2</f>
         <v>0</v>
       </c>
-      <c r="AU4" s="77">
+      <c r="AU4" s="74">
         <f>J13</f>
         <v>3</v>
       </c>
-      <c r="AV4" s="78">
+      <c r="AV4" s="75">
         <f>AW5-AW2</f>
         <v>0</v>
       </c>
-      <c r="AW4" s="79">
+      <c r="AW4" s="76">
         <f>AZ2-AW2</f>
         <v>0</v>
       </c>
-      <c r="AZ4" s="77">
+      <c r="AZ4" s="74">
         <f>J14</f>
         <v>3</v>
       </c>
-      <c r="BA4" s="78">
+      <c r="BA4" s="75">
         <f>BB5-BB2</f>
         <v>0</v>
       </c>
-      <c r="BB4" s="79">
+      <c r="BB4" s="76">
         <f>BE2-BB2</f>
         <v>0</v>
       </c>
-      <c r="BE4" s="77">
+      <c r="BE4" s="74">
         <f>J15</f>
         <v>1</v>
       </c>
-      <c r="BF4" s="78">
+      <c r="BF4" s="75">
         <f>BG5-BG2</f>
         <v>0</v>
       </c>
-      <c r="BG4" s="79">
+      <c r="BG4" s="76">
         <f>BJ2-BG2</f>
         <v>0</v>
       </c>
-      <c r="BJ4" s="77">
+      <c r="BJ4" s="74">
         <f>J16</f>
         <v>5</v>
       </c>
-      <c r="BK4" s="78">
+      <c r="BK4" s="75">
         <f>BL5-BL2</f>
         <v>0</v>
       </c>
-      <c r="BL4" s="79">
+      <c r="BL4" s="76">
         <f>BO2-BL2</f>
         <v>0</v>
       </c>
       <c r="BN4" s="61"/>
-      <c r="BO4" s="77">
+      <c r="BO4" s="74">
         <f>J17</f>
         <v>1</v>
       </c>
-      <c r="BP4" s="78">
+      <c r="BP4" s="75">
         <f>BQ5-BQ2</f>
         <v>0</v>
       </c>
-      <c r="BQ4" s="79"/>
+      <c r="BQ4" s="76"/>
     </row>
     <row r="5" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="20" t="s">
         <v>15</v>
       </c>
@@ -2904,7 +2898,7 @@
       <c r="G5" s="21">
         <v>3</v>
       </c>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="101" t="s">
         <v>53</v>
       </c>
       <c r="I5" s="22">
@@ -2914,106 +2908,106 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L5" s="74">
+      <c r="L5" s="71">
         <f>N5-L4</f>
         <v>0</v>
       </c>
-      <c r="M5" s="73"/>
-      <c r="N5" s="75">
+      <c r="M5" s="70"/>
+      <c r="N5" s="72">
         <f>MIN(Q5,Q17)</f>
         <v>5</v>
       </c>
-      <c r="O5" s="65"/>
-      <c r="Q5" s="74">
+      <c r="O5" s="62"/>
+      <c r="Q5" s="71">
         <f>S5-Q4</f>
         <v>5</v>
       </c>
-      <c r="R5" s="73"/>
-      <c r="S5" s="75">
+      <c r="R5" s="70"/>
+      <c r="S5" s="72">
         <f>MIN(V5,V11)</f>
         <v>6</v>
       </c>
-      <c r="T5" s="65"/>
-      <c r="V5" s="74">
+      <c r="T5" s="62"/>
+      <c r="V5" s="71">
         <f>X5-V4</f>
         <v>12</v>
       </c>
-      <c r="W5" s="73"/>
-      <c r="X5" s="75">
+      <c r="W5" s="70"/>
+      <c r="X5" s="72">
         <f>AF5</f>
         <v>16</v>
       </c>
-      <c r="AD5" s="65"/>
-      <c r="AF5" s="74">
+      <c r="AD5" s="62"/>
+      <c r="AF5" s="71">
         <f>AH5-AF4</f>
         <v>16</v>
       </c>
-      <c r="AG5" s="73"/>
-      <c r="AH5" s="75">
+      <c r="AG5" s="70"/>
+      <c r="AH5" s="72">
         <f>AK5</f>
         <v>18</v>
       </c>
-      <c r="AK5" s="74">
+      <c r="AK5" s="71">
         <f>AM5-AK4</f>
         <v>18</v>
       </c>
-      <c r="AL5" s="73"/>
-      <c r="AM5" s="75">
+      <c r="AL5" s="70"/>
+      <c r="AM5" s="72">
         <f>AP5</f>
         <v>20</v>
       </c>
-      <c r="AP5" s="74">
+      <c r="AP5" s="71">
         <f>AR5-AP4</f>
         <v>20</v>
       </c>
-      <c r="AQ5" s="73"/>
-      <c r="AR5" s="75">
+      <c r="AQ5" s="70"/>
+      <c r="AR5" s="72">
         <f>AU5</f>
         <v>22</v>
       </c>
-      <c r="AU5" s="74">
+      <c r="AU5" s="71">
         <f>AW5-AU4</f>
         <v>22</v>
       </c>
-      <c r="AV5" s="73"/>
-      <c r="AW5" s="75">
+      <c r="AV5" s="70"/>
+      <c r="AW5" s="72">
         <f>AZ5</f>
         <v>25</v>
       </c>
-      <c r="AZ5" s="74">
+      <c r="AZ5" s="71">
         <f>BB5-AZ4</f>
         <v>25</v>
       </c>
-      <c r="BA5" s="73"/>
-      <c r="BB5" s="75">
+      <c r="BA5" s="70"/>
+      <c r="BB5" s="72">
         <f>BE5</f>
         <v>28</v>
       </c>
-      <c r="BE5" s="74">
+      <c r="BE5" s="71">
         <f>BG5-BE4</f>
         <v>28</v>
       </c>
-      <c r="BF5" s="73"/>
-      <c r="BG5" s="75">
+      <c r="BF5" s="70"/>
+      <c r="BG5" s="72">
         <f>BJ5</f>
         <v>29</v>
       </c>
-      <c r="BJ5" s="74">
+      <c r="BJ5" s="71">
         <f>BL5-BJ4</f>
         <v>29</v>
       </c>
-      <c r="BK5" s="73"/>
-      <c r="BL5" s="75">
+      <c r="BK5" s="70"/>
+      <c r="BL5" s="72">
         <f>BO5</f>
         <v>34</v>
       </c>
-      <c r="BM5" s="65"/>
-      <c r="BO5" s="74">
+      <c r="BM5" s="62"/>
+      <c r="BO5" s="71">
         <f>BQ5-BO4</f>
         <v>34</v>
       </c>
-      <c r="BP5" s="73"/>
-      <c r="BQ5" s="75">
+      <c r="BP5" s="70"/>
+      <c r="BQ5" s="72">
         <f>BQ2</f>
         <v>35</v>
       </c>
@@ -3022,11 +3016,11 @@
       <c r="A6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
       <c r="E6" s="23" t="s">
         <v>27</v>
       </c>
@@ -3036,7 +3030,7 @@
       <c r="G6" s="1">
         <v>7</v>
       </c>
-      <c r="H6" s="63" t="s">
+      <c r="H6" s="101" t="s">
         <v>53</v>
       </c>
       <c r="I6" s="22">
@@ -3046,21 +3040,21 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="O6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="AD6" s="65"/>
-      <c r="AE6" s="65"/>
-      <c r="BM6" s="65"/>
+      <c r="O6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="62"/>
+      <c r="BM6" s="62"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
       <c r="E7" s="20" t="s">
         <v>16</v>
       </c>
@@ -3070,7 +3064,7 @@
       <c r="G7" s="21">
         <v>1</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="101" t="s">
         <v>53</v>
       </c>
       <c r="I7" s="22">
@@ -3080,21 +3074,21 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="AD7" s="65"/>
-      <c r="AE7" s="65"/>
-      <c r="BM7" s="65"/>
+      <c r="O7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="AD7" s="62"/>
+      <c r="AE7" s="62"/>
+      <c r="BM7" s="62"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="23" t="s">
         <v>22</v>
       </c>
@@ -3104,7 +3098,7 @@
       <c r="G8" s="1">
         <v>3</v>
       </c>
-      <c r="H8" s="63" t="s">
+      <c r="H8" s="101" t="s">
         <v>53</v>
       </c>
       <c r="I8" s="22">
@@ -3114,39 +3108,39 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="O8" s="65"/>
-      <c r="T8" s="65"/>
-      <c r="V8" s="72">
+      <c r="O8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="V8" s="69">
         <f>S2</f>
         <v>6</v>
       </c>
-      <c r="W8" s="73"/>
-      <c r="X8" s="76">
+      <c r="W8" s="70"/>
+      <c r="X8" s="73">
         <f>V8+V10</f>
         <v>9</v>
       </c>
-      <c r="AA8" s="72">
+      <c r="AA8" s="69">
         <f>X8</f>
         <v>9</v>
       </c>
-      <c r="AB8" s="73"/>
-      <c r="AC8" s="76">
+      <c r="AB8" s="70"/>
+      <c r="AC8" s="73">
         <f>AA8+AA10</f>
         <v>16</v>
       </c>
-      <c r="AD8" s="65"/>
-      <c r="AE8" s="65"/>
-      <c r="BM8" s="65"/>
+      <c r="AD8" s="62"/>
+      <c r="AE8" s="62"/>
+      <c r="BM8" s="62"/>
     </row>
     <row r="9" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="23" t="s">
         <v>56</v>
       </c>
@@ -3156,7 +3150,7 @@
       <c r="G9" s="1">
         <v>2</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="101" t="s">
         <v>53</v>
       </c>
       <c r="I9" s="22">
@@ -3166,33 +3160,33 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="O9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="V9" s="100" t="s">
+      <c r="O9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="V9" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="W9" s="100"/>
-      <c r="X9" s="100"/>
+      <c r="W9" s="97"/>
+      <c r="X9" s="97"/>
       <c r="Y9" s="60"/>
       <c r="Z9" s="61"/>
-      <c r="AA9" s="100" t="s">
+      <c r="AA9" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="AB9" s="100"/>
-      <c r="AC9" s="100"/>
-      <c r="AD9" s="69"/>
-      <c r="AE9" s="65"/>
-      <c r="BM9" s="65"/>
+      <c r="AB9" s="97"/>
+      <c r="AC9" s="97"/>
+      <c r="AD9" s="66"/>
+      <c r="AE9" s="62"/>
+      <c r="BM9" s="62"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
       <c r="E10" s="23" t="s">
         <v>33</v>
       </c>
@@ -3202,7 +3196,7 @@
       <c r="G10" s="1">
         <v>2</v>
       </c>
-      <c r="H10" s="63" t="s">
+      <c r="H10" s="101" t="s">
         <v>53</v>
       </c>
       <c r="I10" s="22">
@@ -3212,44 +3206,44 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="O10" s="65"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="77">
+      <c r="O10" s="62"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="74">
         <f>J5</f>
         <v>3</v>
       </c>
-      <c r="W10" s="78">
+      <c r="W10" s="75">
         <f>X11-X8</f>
         <v>0</v>
       </c>
-      <c r="X10" s="79">
+      <c r="X10" s="76">
         <f>AA8-X8</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="77">
+      <c r="AA10" s="74">
         <f>J6</f>
         <v>7</v>
       </c>
-      <c r="AB10" s="78">
+      <c r="AB10" s="75">
         <f>AC11-AC8</f>
         <v>0</v>
       </c>
-      <c r="AC10" s="79">
+      <c r="AC10" s="76">
         <f>AF2-AC8</f>
         <v>0</v>
       </c>
-      <c r="AE10" s="65"/>
-      <c r="BM10" s="65"/>
+      <c r="AE10" s="62"/>
+      <c r="BM10" s="62"/>
     </row>
     <row r="11" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
       <c r="E11" s="23" t="s">
         <v>35</v>
       </c>
@@ -3259,7 +3253,7 @@
       <c r="G11" s="1">
         <v>2</v>
       </c>
-      <c r="H11" s="63" t="s">
+      <c r="H11" s="101" t="s">
         <v>53</v>
       </c>
       <c r="I11" s="22">
@@ -3269,37 +3263,37 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="O11" s="65"/>
-      <c r="V11" s="74">
+      <c r="O11" s="62"/>
+      <c r="V11" s="71">
         <f>X11-V10</f>
         <v>6</v>
       </c>
-      <c r="W11" s="73"/>
-      <c r="X11" s="75">
+      <c r="W11" s="70"/>
+      <c r="X11" s="72">
         <f>AA11</f>
         <v>9</v>
       </c>
-      <c r="AA11" s="74">
+      <c r="AA11" s="71">
         <f>AC11-AA10</f>
         <v>9</v>
       </c>
-      <c r="AB11" s="73"/>
-      <c r="AC11" s="75">
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="72">
         <f>AF5</f>
         <v>16</v>
       </c>
-      <c r="AE11" s="65"/>
-      <c r="BM11" s="65"/>
+      <c r="AE11" s="62"/>
+      <c r="BM11" s="62"/>
     </row>
     <row r="12" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
       <c r="E12" s="23" t="s">
         <v>28</v>
       </c>
@@ -3309,7 +3303,7 @@
       <c r="G12" s="1">
         <v>10</v>
       </c>
-      <c r="H12" s="63">
+      <c r="H12" s="101">
         <v>1</v>
       </c>
       <c r="I12" s="22">
@@ -3319,24 +3313,24 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="O12" s="65"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="68"/>
-      <c r="AD12" s="68"/>
-      <c r="AE12" s="71"/>
-      <c r="BM12" s="65"/>
+      <c r="O12" s="62"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="65"/>
+      <c r="AD12" s="65"/>
+      <c r="AE12" s="68"/>
+      <c r="BM12" s="62"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="23" t="s">
         <v>37</v>
       </c>
@@ -3346,7 +3340,7 @@
       <c r="G13" s="1">
         <v>3</v>
       </c>
-      <c r="H13" s="63" t="s">
+      <c r="H13" s="101" t="s">
         <v>53</v>
       </c>
       <c r="I13" s="22">
@@ -3356,19 +3350,19 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="O13" s="65"/>
-      <c r="Y13" s="65"/>
-      <c r="BM13" s="65"/>
+      <c r="O13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="BM13" s="62"/>
     </row>
     <row r="14" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
       <c r="E14" s="23" t="s">
         <v>23</v>
       </c>
@@ -3378,7 +3372,7 @@
       <c r="G14" s="1">
         <v>3</v>
       </c>
-      <c r="H14" s="63" t="s">
+      <c r="H14" s="101" t="s">
         <v>53</v>
       </c>
       <c r="I14" s="22">
@@ -3388,46 +3382,46 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="O14" s="65"/>
-      <c r="Q14" s="72">
+      <c r="O14" s="62"/>
+      <c r="Q14" s="69">
         <f>N2</f>
         <v>5</v>
       </c>
-      <c r="R14" s="73"/>
-      <c r="S14" s="76">
+      <c r="R14" s="70"/>
+      <c r="S14" s="73">
         <f>Q14+Q16</f>
         <v>6</v>
       </c>
-      <c r="V14" s="72">
+      <c r="V14" s="69">
         <f>S14</f>
         <v>6</v>
       </c>
-      <c r="W14" s="73"/>
-      <c r="X14" s="76">
+      <c r="W14" s="70"/>
+      <c r="X14" s="73">
         <f>V14+V16</f>
         <v>9</v>
       </c>
-      <c r="Y14" s="69"/>
-      <c r="AA14" s="72">
+      <c r="Y14" s="66"/>
+      <c r="AA14" s="69">
         <f>X14</f>
         <v>9</v>
       </c>
-      <c r="AB14" s="73"/>
-      <c r="AC14" s="76">
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="73">
         <f>AA14+AA16</f>
         <v>19</v>
       </c>
-      <c r="BM14" s="65"/>
+      <c r="BM14" s="62"/>
     </row>
     <row r="15" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
       <c r="E15" s="23" t="s">
         <v>41</v>
       </c>
@@ -3437,7 +3431,7 @@
       <c r="G15" s="1">
         <v>1</v>
       </c>
-      <c r="H15" s="63" t="s">
+      <c r="H15" s="101" t="s">
         <v>53</v>
       </c>
       <c r="I15" s="22">
@@ -3447,73 +3441,73 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O15" s="65"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="100" t="s">
+      <c r="O15" s="62"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="100"/>
-      <c r="S15" s="100"/>
+      <c r="R15" s="97"/>
+      <c r="S15" s="97"/>
       <c r="T15" s="60"/>
       <c r="U15" s="61"/>
-      <c r="V15" s="100" t="s">
+      <c r="V15" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="W15" s="100"/>
-      <c r="X15" s="100"/>
+      <c r="W15" s="97"/>
+      <c r="X15" s="97"/>
       <c r="Y15" s="60"/>
       <c r="Z15" s="61"/>
-      <c r="AA15" s="100" t="s">
+      <c r="AA15" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="AB15" s="100"/>
-      <c r="AC15" s="100"/>
+      <c r="AB15" s="97"/>
+      <c r="AC15" s="97"/>
       <c r="AD15" s="60"/>
-      <c r="AE15" s="68"/>
-      <c r="AF15" s="68"/>
-      <c r="AG15" s="68"/>
-      <c r="AH15" s="68"/>
-      <c r="AI15" s="68"/>
-      <c r="AJ15" s="68"/>
-      <c r="AK15" s="68"/>
-      <c r="AL15" s="68"/>
-      <c r="AM15" s="68"/>
-      <c r="AN15" s="68"/>
-      <c r="AO15" s="68"/>
-      <c r="AP15" s="68"/>
-      <c r="AQ15" s="68"/>
-      <c r="AR15" s="68"/>
-      <c r="AS15" s="68"/>
-      <c r="AT15" s="68"/>
-      <c r="AU15" s="68"/>
-      <c r="AV15" s="68"/>
-      <c r="AW15" s="68"/>
-      <c r="AX15" s="68"/>
-      <c r="AY15" s="68"/>
-      <c r="AZ15" s="68"/>
-      <c r="BA15" s="68"/>
-      <c r="BB15" s="68"/>
-      <c r="BC15" s="68"/>
-      <c r="BD15" s="68"/>
-      <c r="BE15" s="68"/>
-      <c r="BF15" s="68"/>
-      <c r="BG15" s="68"/>
-      <c r="BH15" s="68"/>
-      <c r="BI15" s="68"/>
-      <c r="BJ15" s="68"/>
-      <c r="BK15" s="68"/>
-      <c r="BL15" s="68"/>
-      <c r="BM15" s="71"/>
+      <c r="AE15" s="65"/>
+      <c r="AF15" s="65"/>
+      <c r="AG15" s="65"/>
+      <c r="AH15" s="65"/>
+      <c r="AI15" s="65"/>
+      <c r="AJ15" s="65"/>
+      <c r="AK15" s="65"/>
+      <c r="AL15" s="65"/>
+      <c r="AM15" s="65"/>
+      <c r="AN15" s="65"/>
+      <c r="AO15" s="65"/>
+      <c r="AP15" s="65"/>
+      <c r="AQ15" s="65"/>
+      <c r="AR15" s="65"/>
+      <c r="AS15" s="65"/>
+      <c r="AT15" s="65"/>
+      <c r="AU15" s="65"/>
+      <c r="AV15" s="65"/>
+      <c r="AW15" s="65"/>
+      <c r="AX15" s="65"/>
+      <c r="AY15" s="65"/>
+      <c r="AZ15" s="65"/>
+      <c r="BA15" s="65"/>
+      <c r="BB15" s="65"/>
+      <c r="BC15" s="65"/>
+      <c r="BD15" s="65"/>
+      <c r="BE15" s="65"/>
+      <c r="BF15" s="65"/>
+      <c r="BG15" s="65"/>
+      <c r="BH15" s="65"/>
+      <c r="BI15" s="65"/>
+      <c r="BJ15" s="65"/>
+      <c r="BK15" s="65"/>
+      <c r="BL15" s="65"/>
+      <c r="BM15" s="68"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="23" t="s">
         <v>29</v>
       </c>
@@ -3523,7 +3517,7 @@
       <c r="G16" s="1">
         <v>5</v>
       </c>
-      <c r="H16" s="63" t="s">
+      <c r="H16" s="101" t="s">
         <v>53</v>
       </c>
       <c r="I16" s="22">
@@ -3533,39 +3527,39 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Q16" s="77">
+      <c r="Q16" s="74">
         <f>J7</f>
         <v>1</v>
       </c>
-      <c r="R16" s="78">
+      <c r="R16" s="75">
         <f>S17-S14</f>
         <v>7</v>
       </c>
-      <c r="S16" s="79">
+      <c r="S16" s="76">
         <f>V14-S14</f>
         <v>0</v>
       </c>
-      <c r="V16" s="77">
+      <c r="V16" s="74">
         <f>J8</f>
         <v>3</v>
       </c>
-      <c r="W16" s="78">
+      <c r="W16" s="75">
         <f>X17-X14</f>
         <v>7</v>
       </c>
-      <c r="X16" s="79">
+      <c r="X16" s="76">
         <f>MIN(AA14,AF2)-X14</f>
         <v>0</v>
       </c>
-      <c r="AA16" s="77">
+      <c r="AA16" s="74">
         <f>J12</f>
         <v>10</v>
       </c>
-      <c r="AB16" s="78">
+      <c r="AB16" s="75">
         <f>AC17-AC14</f>
         <v>15</v>
       </c>
-      <c r="AC16" s="79">
+      <c r="AC16" s="76">
         <f>BO2-AC14</f>
         <v>15</v>
       </c>
@@ -3574,11 +3568,11 @@
       <c r="A17" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
       <c r="E17" s="24" t="s">
         <v>58</v>
       </c>
@@ -3586,7 +3580,7 @@
       <c r="G17" s="26">
         <v>1</v>
       </c>
-      <c r="H17" s="64" t="s">
+      <c r="H17" s="102" t="s">
         <v>53</v>
       </c>
       <c r="I17" s="22">
@@ -3596,41 +3590,41 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q17" s="74">
+      <c r="Q17" s="71">
         <f>S17-Q16</f>
         <v>12</v>
       </c>
-      <c r="R17" s="73"/>
-      <c r="S17" s="75">
+      <c r="R17" s="70"/>
+      <c r="S17" s="72">
         <f>V17</f>
         <v>13</v>
       </c>
-      <c r="V17" s="74">
+      <c r="V17" s="71">
         <f>X17-V16</f>
         <v>13</v>
       </c>
-      <c r="W17" s="73"/>
-      <c r="X17" s="75">
+      <c r="W17" s="70"/>
+      <c r="X17" s="72">
         <f>MIN(AA17,AF5)</f>
         <v>16</v>
       </c>
-      <c r="AA17" s="74">
+      <c r="AA17" s="71">
         <f>AC17-AA16</f>
         <v>24</v>
       </c>
-      <c r="AB17" s="73"/>
-      <c r="AC17" s="75">
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="72">
         <f>BO5</f>
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A19" s="80" t="s">
+      <c r="A19" s="77" t="s">
         <v>78</v>
       </c>
       <c r="C19" t="s">
@@ -3638,11 +3632,11 @@
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="76" t="s">
+      <c r="B20" s="70"/>
+      <c r="C20" s="73" t="s">
         <v>69</v>
       </c>
       <c r="D20" t="s">
@@ -3650,20 +3644,20 @@
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A21" s="100" t="s">
+      <c r="A21" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="76" t="s">
         <v>73</v>
       </c>
       <c r="D22" t="s">
@@ -3671,11 +3665,11 @@
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="73"/>
-      <c r="C23" s="75" t="s">
+      <c r="B23" s="70"/>
+      <c r="C23" s="72" t="s">
         <v>74</v>
       </c>
       <c r="D23" t="s">
@@ -3684,11 +3678,26 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="AZ3:BB3"/>
     <mergeCell ref="BE3:BG3"/>
     <mergeCell ref="BJ3:BL3"/>
@@ -3699,26 +3708,11 @@
     <mergeCell ref="AK3:AM3"/>
     <mergeCell ref="AP3:AR3"/>
     <mergeCell ref="AU3:AW3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="Q3:S3"/>
   </mergeCells>
   <conditionalFormatting sqref="B22">
     <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
@@ -3838,11 +3832,11 @@
       <c r="A1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
       <c r="E1" s="14" t="s">
         <v>46</v>
       </c>
@@ -4032,11 +4026,11 @@
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
       <c r="E2" s="16"/>
       <c r="F2" s="17" t="s">
         <v>52</v>
@@ -4045,7 +4039,7 @@
         <f>Netzplan!G2</f>
         <v>5</v>
       </c>
-      <c r="H2" s="21" t="str">
+      <c r="H2" s="21">
         <f>Netzplan!H2</f>
         <v>1</v>
       </c>
@@ -4133,11 +4127,11 @@
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
       <c r="E3" s="20" t="s">
         <v>16</v>
       </c>
@@ -4228,11 +4222,11 @@
       <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="20" t="s">
         <v>15</v>
       </c>
@@ -4329,11 +4323,11 @@
       <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="20" t="s">
         <v>15</v>
       </c>
@@ -4428,11 +4422,11 @@
       <c r="A6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
       <c r="E6" s="23" t="s">
         <v>27</v>
       </c>
@@ -4531,11 +4525,11 @@
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
       <c r="E7" s="20" t="s">
         <v>16</v>
       </c>
@@ -4626,11 +4620,11 @@
       <c r="A8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="23" t="s">
         <v>22</v>
       </c>
@@ -4723,11 +4717,11 @@
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
       <c r="G9" s="21"/>
@@ -4797,11 +4791,11 @@
       <c r="A10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
       <c r="E10" s="23" t="s">
         <v>56</v>
       </c>
@@ -4894,11 +4888,11 @@
       <c r="A11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
       <c r="E11" s="23" t="s">
         <v>33</v>
       </c>
@@ -4991,11 +4985,11 @@
       <c r="A12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
       <c r="E12" s="23" t="s">
         <v>35</v>
       </c>
@@ -5087,11 +5081,11 @@
       <c r="A13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="23" t="s">
         <v>28</v>
       </c>
@@ -5217,11 +5211,11 @@
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
       <c r="G14" s="21"/>
@@ -5290,11 +5284,11 @@
       <c r="A15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
       <c r="E15" s="23" t="s">
         <v>37</v>
       </c>
@@ -5388,11 +5382,11 @@
       <c r="A16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="23" t="s">
         <v>23</v>
       </c>
@@ -5484,11 +5478,11 @@
     </row>
     <row r="17" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="21"/>
@@ -5557,11 +5551,11 @@
       <c r="A18" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
       <c r="E18" s="23" t="s">
         <v>41</v>
       </c>
@@ -5652,11 +5646,11 @@
       <c r="A19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
       <c r="E19" s="23" t="s">
         <v>29</v>
       </c>
@@ -5750,11 +5744,11 @@
       <c r="A20" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="82" t="s">
+      <c r="B20" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
       <c r="E20" s="24" t="s">
         <v>58</v>
       </c>
@@ -5841,26 +5835,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <conditionalFormatting sqref="K2:K20">
     <cfRule type="expression" dxfId="2" priority="4">
